--- a/code/content/TOPIC_XLSX/시간대_1.xlsx
+++ b/code/content/TOPIC_XLSX/시간대_1.xlsx
@@ -14,78 +14,81 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>접수시간대</t>
   </si>
   <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>13</t>
   </si>
   <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>11</t>
+    <t>10</t>
   </si>
   <si>
     <t>24</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>14</t>
   </si>
   <si>
     <t>17</t>
   </si>
   <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
     <t>18</t>
   </si>
   <si>
-    <t>15</t>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
   </si>
   <si>
     <t>21</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>07</t>
-  </si>
-  <si>
-    <t>20</t>
+    <t>06</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>22</t>
   </si>
   <si>
     <t>12</t>
   </si>
   <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
     <t>04</t>
   </si>
   <si>
     <t>23</t>
   </si>
   <si>
-    <t>06</t>
-  </si>
-  <si>
     <t>01</t>
   </si>
   <si>
     <t>02</t>
+  </si>
+  <si>
+    <t>03</t>
   </si>
 </sst>
 </file>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -462,7 +465,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>34</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -470,7 +473,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>31</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -478,7 +481,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>30</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -486,7 +489,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>27</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -494,7 +497,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>27</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -502,7 +505,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>25</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -510,7 +513,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>24</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -518,7 +521,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -526,7 +529,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -534,7 +537,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -542,7 +545,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -550,7 +553,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -558,7 +561,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -566,7 +569,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -574,7 +577,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -582,7 +585,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -590,7 +593,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -598,7 +601,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -606,7 +609,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -614,7 +617,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -622,7 +625,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -630,7 +633,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -638,7 +641,15 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
